--- a/Etapa Elaboración - Iteración 2/Estimacion 03 Caso Más Probable - Kairos - NexTech.xlsx
+++ b/Etapa Elaboración - Iteración 2/Estimacion 03 Caso Más Probable - Kairos - NexTech.xlsx
@@ -261,7 +261,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mghIruL3+L1NfrlYBAUEgPv/FK5rA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjhNXhoMplMDOiUzBr0vmBfBbub2g=="/>
     </ext>
   </extLst>
 </comments>
